--- a/Meaning_Columns_GFE.xlsx
+++ b/Meaning_Columns_GFE.xlsx
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>number of individuals with at least one read</t>
-  </si>
-  <si>
-    <t>ML estimate of the major-allele counts</t>
-  </si>
-  <si>
-    <t>ML estimate of the minor-allele counts</t>
   </si>
   <si>
     <t>ML estimate of the disequilibrium coefficient</t>
@@ -195,6 +189,12 @@
   </si>
   <si>
     <t>the identity  (1:A, 2:C, 3:G, 4:T) of the minor allele</t>
+  </si>
+  <si>
+    <t>ML estimate of the minor-allele count</t>
+  </si>
+  <si>
+    <t>ML estimate of the major-allele count</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,12 +1050,12 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1197,13 +1197,13 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -1224,10 +1224,10 @@
         <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
@@ -1242,7 +1242,7 @@
         <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -1274,13 +1274,13 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -1350,22 +1350,22 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="11" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
